--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T08:18:01+00:00</t>
+    <t>2024-05-23T12:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:09:09+00:00</t>
+    <t>2024-05-27T09:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:43:00+00:00</t>
+    <t>2024-05-27T14:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Must be taken in the generic sense, i.e. it goes beyond hospital admissions, outpatient consultations, dialysis sessions, day hospitals, etc.</t>
+    <t>Must be taken in the generic sense, i.e. it goes beyond hospital admissions, outpatient consultations, dialysis sessions, day hospitals, etc. 
+Doit être pris au sens générique, c’est-à-dire que cela dépasse les hospitalisations, consultations externes, séances de dialyse, hôpitaux de jour, etc …</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -273,7 +274,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>SEJOUR</t>
+    <t>Sejour</t>
   </si>
   <si>
     <t>Event</t>
@@ -866,7 +867,7 @@
     <t>While the encounter is always about the patient, the patient might not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
   </si>
   <si>
-    <t>PATIENT</t>
+    <t>Patient</t>
   </si>
   <si>
     <t>Event.subject</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T08:16:30+00:00</t>
+    <t>2024-05-31T12:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:21:14+00:00</t>
+    <t>2024-06-11T13:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T09:45:22+00:00</t>
+    <t>2024-06-17T08:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:22:32+00:00</t>
+    <t>2024-06-17T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:49:27+00:00</t>
+    <t>2024-06-19T11:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
